--- a/results/[15_ambitious_co2_pricing]_#_inv_capacity.xlsx
+++ b/results/[15_ambitious_co2_pricing]_#_inv_capacity.xlsx
@@ -517,7 +517,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.03082348907515327</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1813178174358236</v>
+        <v>0.3836099774358235</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374972</v>
+        <v>0.2494892361374887</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.458339086563063</v>
+        <v>0.3390794</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2603402</v>
+        <v>0.6371737626639249</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04347091343693683</v>
+        <v>0.07705441666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>4.651195386821105</v>
+        <v>12.47916728975415</v>
       </c>
       <c r="O2" t="n">
-        <v>3.247577074276669</v>
+        <v>3.089286314025494</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1769656270773813</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.04315537743582359</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4098014516393297</v>
+        <v>0.2358430747790291</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2805144747498873</v>
+        <v>0.2185782126639248</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.041817192437372</v>
+        <v>0.3134228373360751</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1410634844262494</v>
+        <v>0.04445675000000002</v>
       </c>
       <c r="N2" t="n">
-        <v>9.344791978589317</v>
+        <v>5.459514395001401</v>
       </c>
       <c r="O2" t="n">
-        <v>4.625256111711343</v>
+        <v>2.484404990704424</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1590154838474652</v>
+        <v>0.06436441412223484</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.04092089999999998</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8303008525513508</v>
+        <v>0.1918809994972733</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.340422590042469</v>
+        <v>0.4873910873360754</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.049782378658809</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3601571583440214</v>
+        <v>0.03806850000000002</v>
       </c>
       <c r="N2" t="n">
-        <v>21.88718312425562</v>
+        <v>8.376182333015379</v>
       </c>
       <c r="O2" t="n">
-        <v>17.23296974575466</v>
+        <v>5.080822541972329</v>
       </c>
     </row>
   </sheetData>

--- a/results/[15_ambitious_co2_pricing]_#_inv_capacity.xlsx
+++ b/results/[15_ambitious_co2_pricing]_#_inv_capacity.xlsx
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3836099774358235</v>
+        <v>0.383293488890263</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374887</v>
+        <v>0.2494892361374932</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3390794</v>
+        <v>0.338095135146706</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6371737626639249</v>
+        <v>0.6326894000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07705441666666667</v>
+        <v>0.07732950000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>12.47916728975415</v>
+        <v>12.53300511624277</v>
       </c>
       <c r="O2" t="n">
-        <v>3.089286314025494</v>
+        <v>2.996483637322932</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04315537743582359</v>
+        <v>0.05976797743582363</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2358430747790291</v>
+        <v>0.3797733770281841</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2185782126639248</v>
+        <v>0.3500227669901076</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3134228373360751</v>
+        <v>0.5060724736312847</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04445675000000002</v>
+        <v>0.07770758333333332</v>
       </c>
       <c r="N2" t="n">
-        <v>5.459514395001401</v>
+        <v>9.493429413993001</v>
       </c>
       <c r="O2" t="n">
-        <v>2.484404990704424</v>
+        <v>4.069179245648764</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.06436441412223484</v>
+        <v>0.0656132686956898</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04092089999999998</v>
+        <v>0.04142791163932963</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1918809994972733</v>
+        <v>0.1973322857734223</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4873910873360754</v>
+        <v>0.4730539349770969</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03806850000000002</v>
+        <v>0.02473730592147128</v>
       </c>
       <c r="N2" t="n">
-        <v>8.376182333015379</v>
+        <v>8.93134762409905</v>
       </c>
       <c r="O2" t="n">
-        <v>5.080822541972329</v>
+        <v>5.430660764195101</v>
       </c>
     </row>
   </sheetData>

--- a/results/[15_ambitious_co2_pricing]_#_inv_capacity.xlsx
+++ b/results/[15_ambitious_co2_pricing]_#_inv_capacity.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.03082348907515327</v>
+        <v>0.1774173491026327</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.6988865504857341</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1813178174358236</v>
+        <v>0.31259354256</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.3247024241048814</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374972</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.06880566916063374</v>
       </c>
       <c r="I2" t="n">
-        <v>0.458339086563063</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2603402</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04347091343693683</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.651195386821105</v>
+        <v>7.86217612746788</v>
       </c>
       <c r="O2" t="n">
-        <v>3.247577074276669</v>
+        <v>3.364628064996624</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1769656270773813</v>
+        <v>0.1784518902710297</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.220795686899256</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4098014516393297</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2403690565694546</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1393700898393662</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2805144747498873</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.041817192437372</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1410634844262494</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.344791978589317</v>
+        <v>26.09700856829469</v>
       </c>
       <c r="O2" t="n">
-        <v>4.625256111711343</v>
+        <v>6.64631114309088</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1590154838474652</v>
+        <v>0.9125903823652104</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.605660048695328</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8303008525513508</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.03015563704984303</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1261817221222263</v>
       </c>
       <c r="I2" t="n">
-        <v>1.340422590042469</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.049782378658809</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3601571583440214</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>21.88718312425562</v>
+        <v>26.02971581004621</v>
       </c>
       <c r="O2" t="n">
-        <v>17.23296974575466</v>
+        <v>7.285821150245225</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[15_ambitious_co2_pricing]_#_inv_capacity.xlsx
+++ b/results/[15_ambitious_co2_pricing]_#_inv_capacity.xlsx
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.383293488890263</v>
+        <v>0.3832934888902615</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374932</v>
+        <v>0.2494892361374987</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.338095135146706</v>
+        <v>0.3380951351467061</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0.07732950000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>12.53300511624277</v>
+        <v>12.53300511624278</v>
       </c>
       <c r="O2" t="n">
-        <v>2.996483637322932</v>
+        <v>2.996483637322931</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3797733770281841</v>
+        <v>0.3797733770281851</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3500227669901076</v>
+        <v>0.3500227669901075</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5060724736312847</v>
+        <v>0.5060724736312849</v>
       </c>
       <c r="M2" t="n">
         <v>0.07770758333333332</v>
       </c>
       <c r="N2" t="n">
-        <v>9.493429413993001</v>
+        <v>9.493429413992937</v>
       </c>
       <c r="O2" t="n">
-        <v>4.069179245648764</v>
+        <v>4.069179245648762</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0656132686956898</v>
+        <v>0.06561326869568931</v>
       </c>
       <c r="B2" t="n">
         <v>0.04142791163932963</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1973322857734223</v>
+        <v>0.1973322857734225</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02473730592147128</v>
+        <v>0.02473730592147136</v>
       </c>
       <c r="N2" t="n">
-        <v>8.93134762409905</v>
+        <v>8.931347624099043</v>
       </c>
       <c r="O2" t="n">
-        <v>5.430660764195101</v>
+        <v>5.430660764195066</v>
       </c>
     </row>
   </sheetData>
